--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Ninja Outbreak\Project-Ninja-Outbreak\Producer Dingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Project-Ninja-Outbreak\Producer Dingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1097,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1165,8 +1165,8 @@
       <c r="I2" s="75"/>
       <c r="J2" s="1"/>
       <c r="K2" s="32">
-        <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>170</v>
+        <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
+        <v>210</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.23529411764705882</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1214,11 +1214,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.96470588235294119</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1256,11 +1256,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.96470588235294119</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.3235294117647059</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1340,11 +1340,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.92941176470588238</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1382,11 +1382,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.94117647058823528</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1431,11 +1431,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.92941176470588238</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.2882352941176478</v>
+        <v>4.8047619047619046</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3482,14 +3482,26 @@
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="10">
+        <v>2</v>
+      </c>
       <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
+      <c r="D93" s="35">
+        <v>2</v>
+      </c>
+      <c r="E93" s="35">
+        <v>2</v>
+      </c>
       <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="36"/>
+      <c r="G93" s="35">
+        <v>2</v>
+      </c>
+      <c r="H93" s="35">
+        <v>2</v>
+      </c>
+      <c r="I93" s="36">
+        <v>2</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
@@ -3552,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C96" s="76">
         <f t="shared" ref="C96:G96" si="11">SUM(C91:C95)</f>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="D96" s="77">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E96" s="77">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F96" s="77">
         <f t="shared" si="11"/>
@@ -3572,15 +3584,15 @@
       </c>
       <c r="G96" s="77">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H96" s="77">
         <f>SUM(H91:H95)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" s="78">
         <f>SUM(I91:I95)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J96" s="31"/>
     </row>
@@ -3613,14 +3625,26 @@
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="10">
+        <v>4</v>
+      </c>
       <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
+      <c r="D99" s="35">
+        <v>4</v>
+      </c>
+      <c r="E99" s="35">
+        <v>4</v>
+      </c>
       <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="36"/>
+      <c r="G99" s="35">
+        <v>4</v>
+      </c>
+      <c r="H99" s="35">
+        <v>4</v>
+      </c>
+      <c r="I99" s="36">
+        <v>4</v>
+      </c>
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
@@ -3628,14 +3652,26 @@
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="10"/>
+      <c r="B100" s="10">
+        <v>6</v>
+      </c>
       <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
+      <c r="D100" s="35">
+        <v>6</v>
+      </c>
+      <c r="E100" s="35">
+        <v>6</v>
+      </c>
       <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
+      <c r="G100" s="35">
+        <v>6</v>
+      </c>
+      <c r="H100" s="35">
+        <v>6</v>
+      </c>
+      <c r="I100" s="36">
+        <v>6</v>
+      </c>
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
@@ -3643,14 +3679,26 @@
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="10">
+        <v>2</v>
+      </c>
       <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
+      <c r="D101" s="35">
+        <v>2</v>
+      </c>
+      <c r="E101" s="35">
+        <v>2</v>
+      </c>
       <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="36"/>
+      <c r="G101" s="35">
+        <v>2</v>
+      </c>
+      <c r="H101" s="35">
+        <v>2</v>
+      </c>
+      <c r="I101" s="36">
+        <v>2</v>
+      </c>
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
@@ -3658,14 +3706,26 @@
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="10"/>
+      <c r="B102" s="10">
+        <v>4</v>
+      </c>
       <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
+      <c r="D102" s="35">
+        <v>4</v>
+      </c>
+      <c r="E102" s="35">
+        <v>4</v>
+      </c>
       <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="36"/>
+      <c r="G102" s="35">
+        <v>4</v>
+      </c>
+      <c r="H102" s="35">
+        <v>4</v>
+      </c>
+      <c r="I102" s="36">
+        <v>4</v>
+      </c>
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
@@ -3673,14 +3733,26 @@
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="9">
+        <v>4</v>
+      </c>
       <c r="C103" s="82"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
+      <c r="D103" s="80">
+        <v>4</v>
+      </c>
+      <c r="E103" s="80">
+        <v>4</v>
+      </c>
       <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-      <c r="H103" s="80"/>
-      <c r="I103" s="81"/>
+      <c r="G103" s="80">
+        <v>4</v>
+      </c>
+      <c r="H103" s="80">
+        <v>4</v>
+      </c>
+      <c r="I103" s="81">
+        <v>4</v>
+      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="10"/>
     </row>
@@ -3689,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C104" s="76">
         <f t="shared" ref="C104:I104" si="12">SUM(C99:C103)</f>
@@ -3697,11 +3769,11 @@
       </c>
       <c r="D104" s="77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E104" s="77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F104" s="77">
         <f t="shared" si="12"/>
@@ -3709,15 +3781,15 @@
       </c>
       <c r="G104" s="77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H104" s="77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I104" s="77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J104" s="27"/>
     </row>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
   <si>
     <t>Maandag</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>David was ziek</t>
+  </si>
+  <si>
+    <t>Transport problemen Benjamin</t>
+  </si>
+  <si>
+    <t>Personlijke reden Hadewij</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1104,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,15 +1172,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L2" s="47">
-        <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
+        <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
         <v>40</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.19047619047619047</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1213,12 +1219,12 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="48">
-        <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>186</v>
+        <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
+        <v>206</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.88571428571428568</v>
+        <v>0.89565217391304353</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1255,12 +1261,12 @@
       <c r="J4" s="2"/>
       <c r="K4" s="10"/>
       <c r="L4" s="49">
-        <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>186</v>
+        <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
+        <v>206</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.88571428571428568</v>
+        <v>0.89565217391304353</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1297,12 +1303,12 @@
       <c r="J5" s="2"/>
       <c r="K5" s="10"/>
       <c r="L5" s="50">
-        <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
+        <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
         <v>55</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.26190476190476192</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1339,12 +1345,12 @@
       <c r="J6" s="97"/>
       <c r="K6" s="10"/>
       <c r="L6" s="51">
-        <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>180</v>
+        <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
+        <v>200</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1381,12 +1387,12 @@
       <c r="J7" s="97"/>
       <c r="K7" s="10"/>
       <c r="L7" s="52">
-        <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>182</v>
+        <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
+        <v>198</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8666666666666667</v>
+        <v>0.86086956521739133</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1430,12 +1436,12 @@
       <c r="J8" s="30"/>
       <c r="K8" s="10"/>
       <c r="L8" s="38">
-        <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>180</v>
+        <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
+        <v>196</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.85217391304347823</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8047619047619046</v>
+        <v>4.7869565217391301</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3748,12 +3754,14 @@
         <v>4</v>
       </c>
       <c r="H103" s="80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I103" s="81">
         <v>4</v>
       </c>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="K103" s="10"/>
     </row>
     <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3785,7 +3793,7 @@
       </c>
       <c r="H104" s="77">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I104" s="77">
         <f t="shared" si="12"/>
@@ -3822,29 +3830,55 @@
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="10"/>
+      <c r="B107" s="10">
+        <v>4</v>
+      </c>
       <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
+      <c r="D107" s="35">
+        <v>4</v>
+      </c>
+      <c r="E107" s="35">
+        <v>4</v>
+      </c>
       <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="2"/>
+      <c r="G107" s="35">
+        <v>4</v>
+      </c>
+      <c r="H107" s="35">
+        <v>4</v>
+      </c>
+      <c r="I107" s="36">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K107" s="10"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="10"/>
+      <c r="B108" s="10">
+        <v>6</v>
+      </c>
       <c r="C108" s="34"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
+      <c r="D108" s="35">
+        <v>6</v>
+      </c>
+      <c r="E108" s="35">
+        <v>6</v>
+      </c>
       <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="36"/>
+      <c r="G108" s="35">
+        <v>6</v>
+      </c>
+      <c r="H108" s="35">
+        <v>6</v>
+      </c>
+      <c r="I108" s="36">
+        <v>6</v>
+      </c>
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
@@ -3852,14 +3886,26 @@
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="10"/>
+      <c r="B109" s="10">
+        <v>2</v>
+      </c>
       <c r="C109" s="34"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
+      <c r="D109" s="35">
+        <v>2</v>
+      </c>
+      <c r="E109" s="35">
+        <v>2</v>
+      </c>
       <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="36"/>
+      <c r="G109" s="35">
+        <v>2</v>
+      </c>
+      <c r="H109" s="35">
+        <v>2</v>
+      </c>
+      <c r="I109" s="36">
+        <v>2</v>
+      </c>
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
@@ -3867,14 +3913,26 @@
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="10"/>
+      <c r="B110" s="10">
+        <v>4</v>
+      </c>
       <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
+      <c r="D110" s="35">
+        <v>4</v>
+      </c>
+      <c r="E110" s="35">
+        <v>4</v>
+      </c>
       <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="36"/>
+      <c r="G110" s="35">
+        <v>4</v>
+      </c>
+      <c r="H110" s="35">
+        <v>4</v>
+      </c>
+      <c r="I110" s="36">
+        <v>4</v>
+      </c>
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
@@ -3882,14 +3940,26 @@
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="9">
+        <v>4</v>
+      </c>
       <c r="C111" s="82"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
+      <c r="D111" s="80">
+        <v>4</v>
+      </c>
+      <c r="E111" s="80">
+        <v>4</v>
+      </c>
       <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="80"/>
-      <c r="I111" s="81"/>
+      <c r="G111" s="80">
+        <v>4</v>
+      </c>
+      <c r="H111" s="80">
+        <v>4</v>
+      </c>
+      <c r="I111" s="81">
+        <v>4</v>
+      </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3897,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C112" s="76">
         <f t="shared" ref="C112:I112" si="13">SUM(C107:C111)</f>
@@ -3905,11 +3975,11 @@
       </c>
       <c r="D112" s="77">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E112" s="77">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F112" s="77">
         <f t="shared" si="13"/>
@@ -3917,15 +3987,15 @@
       </c>
       <c r="G112" s="77">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H112" s="77">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I112" s="77">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1172,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.17391304347826086</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1220,11 +1220,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.89565217391304353</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1262,11 +1262,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.89565217391304353</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.2391304347826087</v>
+        <v>0.22</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1346,11 +1346,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.86956521739130432</v>
+        <v>0.88</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1388,11 +1388,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.86086956521739133</v>
+        <v>0.872</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1437,11 +1437,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.85217391304347823</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.7869565217391301</v>
+        <v>4.8040000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4022,27 +4022,29 @@
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="10"/>
+      <c r="B115" s="10">
+        <v>4</v>
+      </c>
       <c r="C115" s="34">
         <v>0</v>
       </c>
       <c r="D115" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E115" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F115" s="35">
         <v>0</v>
       </c>
       <c r="G115" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
@@ -4051,27 +4053,29 @@
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="10"/>
+      <c r="B116" s="10">
+        <v>6</v>
+      </c>
       <c r="C116" s="34">
         <v>0</v>
       </c>
       <c r="D116" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E116" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F116" s="35">
         <v>0</v>
       </c>
       <c r="G116" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H116" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I116" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
@@ -4080,27 +4084,29 @@
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="10"/>
+      <c r="B117" s="10">
+        <v>2</v>
+      </c>
       <c r="C117" s="34">
         <v>0</v>
       </c>
       <c r="D117" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" s="35">
         <v>0</v>
       </c>
       <c r="G117" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
@@ -4109,27 +4115,29 @@
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="10"/>
+      <c r="B118" s="10">
+        <v>4</v>
+      </c>
       <c r="C118" s="34">
         <v>0</v>
       </c>
       <c r="D118" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E118" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F118" s="35">
         <v>0</v>
       </c>
       <c r="G118" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="10"/>
@@ -4138,27 +4146,29 @@
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="9">
+        <v>4</v>
+      </c>
       <c r="C119" s="82">
         <v>0</v>
       </c>
       <c r="D119" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E119" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F119" s="80">
         <v>0</v>
       </c>
       <c r="G119" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H119" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119" s="81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J119" s="3"/>
     </row>
@@ -4167,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C120" s="76">
         <f>SUM(C115:C119)</f>
@@ -4175,11 +4185,11 @@
       </c>
       <c r="D120" s="77">
         <f t="shared" ref="D120:I120" si="14">SUM(D115:D119)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120" s="77">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F120" s="77">
         <f t="shared" si="14"/>
@@ -4187,15 +4197,15 @@
       </c>
       <c r="G120" s="77">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H120" s="77">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I120" s="77">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
@@ -4229,7 +4239,9 @@
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="10">
+        <v>4</v>
+      </c>
       <c r="C123" s="34">
         <v>0</v>
       </c>
@@ -4258,7 +4270,9 @@
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="10"/>
+      <c r="B124" s="10">
+        <v>6</v>
+      </c>
       <c r="C124" s="34">
         <v>0</v>
       </c>
@@ -4287,7 +4301,9 @@
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="10"/>
+      <c r="B125" s="10">
+        <v>2</v>
+      </c>
       <c r="C125" s="34">
         <v>0</v>
       </c>
@@ -4316,7 +4332,9 @@
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="10"/>
+      <c r="B126" s="10">
+        <v>4</v>
+      </c>
       <c r="C126" s="34">
         <v>0</v>
       </c>
@@ -4345,7 +4363,9 @@
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="9">
+        <v>4</v>
+      </c>
       <c r="C127" s="82">
         <v>0</v>
       </c>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="61">
   <si>
     <t>Maandag</t>
   </si>
@@ -200,7 +200,13 @@
     <t>Transport problemen Benjamin</t>
   </si>
   <si>
-    <t>Personlijke reden Hadewij</t>
+    <t>Walter was ziek</t>
+  </si>
+  <si>
+    <t>Persoonlijke reden Hadewij</t>
+  </si>
+  <si>
+    <t>Persoonlijke reden Hadewij. David Tandarts</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1178,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1180,7 +1186,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.16</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1220,11 +1226,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.90400000000000003</v>
+        <v>0.89629629629629626</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1262,11 +1268,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.90400000000000003</v>
+        <v>0.88148148148148153</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1308,7 +1314,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.22</v>
+        <v>0.20370370370370369</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1346,11 +1352,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.88</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1388,11 +1394,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.872</v>
+        <v>0.88148148148148153</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1437,11 +1443,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.86399999999999999</v>
+        <v>0.82962962962962961</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8040000000000003</v>
+        <v>4.7296296296296294</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3851,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K107" s="10"/>
     </row>
@@ -4063,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F116" s="35">
         <v>0</v>
@@ -4077,7 +4083,9 @@
       <c r="I116" s="36">
         <v>6</v>
       </c>
-      <c r="J116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K116" s="10"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -4094,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" s="35">
         <v>0</v>
@@ -4122,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E118" s="35">
         <v>4</v>
@@ -4137,9 +4145,11 @@
         <v>4</v>
       </c>
       <c r="I118" s="36">
-        <v>4</v>
-      </c>
-      <c r="J118" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="K118" s="10"/>
     </row>
     <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4168,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="I119" s="81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J119" s="3"/>
     </row>
@@ -4185,11 +4195,11 @@
       </c>
       <c r="D120" s="77">
         <f t="shared" ref="D120:I120" si="14">SUM(D115:D119)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120" s="77">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F120" s="77">
         <f t="shared" si="14"/>
@@ -4205,7 +4215,7 @@
       </c>
       <c r="I120" s="77">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
@@ -4246,19 +4256,19 @@
         <v>0</v>
       </c>
       <c r="D123" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E123" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F123" s="35">
         <v>0</v>
       </c>
       <c r="G123" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H123" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123" s="36">
         <v>0</v>
@@ -4277,22 +4287,22 @@
         <v>0</v>
       </c>
       <c r="D124" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E124" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F124" s="35">
         <v>0</v>
       </c>
       <c r="G124" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H124" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I124" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
@@ -4308,22 +4318,22 @@
         <v>0</v>
       </c>
       <c r="D125" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E125" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125" s="35">
         <v>0</v>
       </c>
       <c r="G125" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
@@ -4339,22 +4349,22 @@
         <v>0</v>
       </c>
       <c r="D126" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E126" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F126" s="35">
         <v>0</v>
       </c>
       <c r="G126" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H126" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I126" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
@@ -4370,22 +4380,22 @@
         <v>0</v>
       </c>
       <c r="D127" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E127" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F127" s="80">
         <v>0</v>
       </c>
       <c r="G127" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I127" s="81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" s="3"/>
     </row>
@@ -4394,7 +4404,7 @@
         <v>5</v>
       </c>
       <c r="B128" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C128" s="76">
         <f t="shared" ref="C128:I128" si="15">SUM(C123:C127)</f>
@@ -4402,11 +4412,11 @@
       </c>
       <c r="D128" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E128" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F128" s="77">
         <f t="shared" si="15"/>
@@ -4414,15 +4424,15 @@
       </c>
       <c r="G128" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H128" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I128" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L128" sqref="L128"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1178,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.14814814814814814</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1226,11 +1226,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.89629629629629626</v>
+        <v>0.93793103448275861</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1268,11 +1268,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.88148148148148153</v>
+        <v>0.92413793103448272</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.20370370370370369</v>
+        <v>0.18965517241379309</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1352,11 +1352,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.88888888888888884</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1394,11 +1394,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.88148148148148153</v>
+        <v>0.92413793103448272</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1443,11 +1443,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.82962962962962961</v>
+        <v>0.87586206896551722</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.7296296296296294</v>
+        <v>4.9206896551724135</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4466,27 +4466,29 @@
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="10"/>
+      <c r="B131" s="10">
+        <v>4</v>
+      </c>
       <c r="C131" s="34">
         <v>0</v>
       </c>
       <c r="D131" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F131" s="35">
         <v>0</v>
       </c>
       <c r="G131" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H131" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
@@ -4495,27 +4497,29 @@
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="10"/>
+      <c r="B132" s="10">
+        <v>6</v>
+      </c>
       <c r="C132" s="34">
         <v>0</v>
       </c>
       <c r="D132" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E132" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F132" s="35">
         <v>0</v>
       </c>
       <c r="G132" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H132" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I132" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
@@ -4524,27 +4528,29 @@
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="10"/>
+      <c r="B133" s="10">
+        <v>2</v>
+      </c>
       <c r="C133" s="34">
         <v>0</v>
       </c>
       <c r="D133" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" s="35">
         <v>0</v>
       </c>
       <c r="G133" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
@@ -4553,27 +4559,29 @@
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="10"/>
+      <c r="B134" s="10">
+        <v>4</v>
+      </c>
       <c r="C134" s="34">
         <v>0</v>
       </c>
       <c r="D134" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E134" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F134" s="35">
         <v>0</v>
       </c>
       <c r="G134" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H134" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I134" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
@@ -4582,27 +4590,29 @@
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="9"/>
+      <c r="B135" s="9">
+        <v>4</v>
+      </c>
       <c r="C135" s="82">
         <v>0</v>
       </c>
       <c r="D135" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E135" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F135" s="80">
         <v>0</v>
       </c>
       <c r="G135" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H135" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135" s="81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J135" s="3"/>
     </row>
@@ -4611,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="B136" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C136" s="76">
         <f t="shared" ref="C136:I136" si="16">SUM(C131:C135)</f>
@@ -4619,11 +4629,11 @@
       </c>
       <c r="D136" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E136" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F136" s="77">
         <f t="shared" si="16"/>
@@ -4631,15 +4641,15 @@
       </c>
       <c r="G136" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H136" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I136" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
@@ -4673,27 +4683,29 @@
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="16"/>
+      <c r="B139" s="16">
+        <v>4</v>
+      </c>
       <c r="C139" s="34">
         <v>0</v>
       </c>
       <c r="D139" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E139" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F139" s="35">
         <v>0</v>
       </c>
       <c r="G139" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H139" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I139" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
@@ -4702,27 +4714,29 @@
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="16"/>
+      <c r="B140" s="16">
+        <v>6</v>
+      </c>
       <c r="C140" s="34">
         <v>0</v>
       </c>
       <c r="D140" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E140" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F140" s="35">
         <v>0</v>
       </c>
       <c r="G140" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H140" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I140" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
@@ -4731,7 +4745,9 @@
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="16"/>
+      <c r="B141" s="16">
+        <v>2</v>
+      </c>
       <c r="C141" s="34">
         <v>0</v>
       </c>
@@ -4760,7 +4776,9 @@
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="16"/>
+      <c r="B142" s="16">
+        <v>4</v>
+      </c>
       <c r="C142" s="34">
         <v>0</v>
       </c>
@@ -4789,7 +4807,9 @@
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="18"/>
+      <c r="B143" s="18">
+        <v>4</v>
+      </c>
       <c r="C143" s="82">
         <v>0</v>
       </c>
@@ -4826,11 +4846,11 @@
       </c>
       <c r="D144" s="77">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E144" s="77">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F144" s="77">
         <f t="shared" si="17"/>
@@ -4838,15 +4858,15 @@
       </c>
       <c r="G144" s="77">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H144" s="77">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I144" s="77">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Project-Ninja-Outbreak\Producer Dingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walter\Documents\GitHub\Project-Ninja-Outbreak\Producer Dingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
   <si>
     <t>Maandag</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Persoonlijke reden Hadewij. David Tandarts</t>
+  </si>
+  <si>
+    <t>David was ziek, werkte thuis</t>
   </si>
 </sst>
 </file>
@@ -1109,23 +1112,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1268,17 +1271,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.92413793103448272</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1352,17 +1355,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.93103448275862066</v>
+        <v>0.93793103448275861</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1394,17 +1397,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.92413793103448272</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1443,17 +1446,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.87586206896551722</v>
+        <v>0.88275862068965516</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1463,7 +1466,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1482,10 +1485,10 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.9206896551724135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.9482758620689653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1663,7 @@
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1705,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1713,7 +1716,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1728,7 +1731,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1762,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1859,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1890,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1928,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1934,7 +1937,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +1952,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2018,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2033,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2097,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -2141,7 +2144,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2158,7 +2161,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2225,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2258,7 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2289,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2356,10 +2359,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2404,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2433,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2477,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2548,7 +2551,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2613,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2628,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2640,7 +2643,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2680,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2687,7 +2690,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2702,7 +2705,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2732,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2756,7 +2759,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2798,7 +2801,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2828,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2874,7 +2877,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2889,7 +2892,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2919,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +2946,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2958,7 +2961,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3011,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -3055,7 +3058,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -3070,7 +3073,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3088,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -3108,7 +3111,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3123,7 +3126,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3153,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3217,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -3224,7 +3227,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -3266,7 +3269,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3296,7 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3350,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -3374,7 +3377,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -3411,7 +3414,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -3421,7 +3424,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3466,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3493,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3520,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +3547,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3574,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -3608,7 +3611,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3618,7 +3621,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3633,7 +3636,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3663,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3690,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3744,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3770,7 +3773,7 @@
       </c>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3817,7 +3820,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +3835,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3888,7 +3891,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3945,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3968,7 +3971,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -4006,10 +4009,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -4024,7 +4027,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -4088,7 +4091,7 @@
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -4152,7 +4155,7 @@
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -4182,7 +4185,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4223,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -4230,7 +4233,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -4245,7 +4248,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4279,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -4338,7 +4341,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -4369,7 +4372,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -4399,7 +4402,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -4437,7 +4440,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -4447,7 +4450,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4465,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -4493,7 +4496,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -4524,7 +4527,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4555,7 +4558,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -4586,7 +4589,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -4616,7 +4619,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -4664,7 +4667,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -4679,7 +4682,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4713,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4744,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4755,24 +4758,26 @@
         <v>0</v>
       </c>
       <c r="E141" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F141" s="35">
         <v>0</v>
       </c>
       <c r="G141" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" s="36">
-        <v>0</v>
-      </c>
-      <c r="J141" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4803,7 +4808,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4838,7 @@
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
@@ -4850,7 +4855,7 @@
       </c>
       <c r="E144" s="77">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F144" s="77">
         <f t="shared" si="17"/>
@@ -4858,20 +4863,20 @@
       </c>
       <c r="G144" s="77">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H144" s="77">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I144" s="77">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4883,7 +4888,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4898,7 +4903,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -4927,7 +4932,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -4956,7 +4961,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4990,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
@@ -5014,7 +5019,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -5042,7 +5047,7 @@
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -5080,7 +5085,7 @@
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -5090,7 +5095,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -5105,7 +5110,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +5139,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -5163,7 +5168,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -5192,7 +5197,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5226,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5254,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5292,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -5297,7 +5302,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -5312,7 +5317,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5346,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -5370,7 +5375,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -5399,7 +5404,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -5428,7 +5433,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -5456,7 +5461,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -5494,7 +5499,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -5504,7 +5509,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -5519,7 +5524,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -5548,7 +5553,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -5577,7 +5582,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -5606,7 +5611,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -5635,7 +5640,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5668,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walter\Documents\GitHub\Project-Ninja-Outbreak\Producer Dingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Project-Ninja-Outbreak\Producer Dingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Maandag</t>
   </si>
@@ -1112,23 +1112,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1189,13 +1189,13 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.13793103448275862</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1229,17 +1229,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.93793103448275861</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1271,17 +1271,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.93103448275862066</v>
+        <v>0.84242424242424241</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1317,13 +1317,13 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.18965517241379309</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1355,17 +1355,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.93793103448275861</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1397,17 +1397,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.93103448275862066</v>
+        <v>0.84242424242424241</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1446,17 +1446,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.88275862068965516</v>
+        <v>0.84242424242424241</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1466,7 +1466,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1485,10 +1485,10 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.9482758620689653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.5121212121212118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1716,7 +1716,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1937,7 +1937,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -2144,7 +2144,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2359,10 +2359,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2551,7 +2551,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2690,7 +2690,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2877,7 +2877,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -3058,7 +3058,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -3227,7 +3227,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -3424,7 +3424,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3621,7 +3621,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3820,7 +3820,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -4009,10 +4009,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -4233,7 +4233,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -4450,7 +4450,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -4667,7 +4667,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -4739,12 +4739,14 @@
         <v>6</v>
       </c>
       <c r="I140" s="36">
-        <v>6</v>
-      </c>
-      <c r="J140" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4777,7 +4779,7 @@
       </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4788,27 +4790,27 @@
         <v>0</v>
       </c>
       <c r="D142" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E142" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F142" s="35">
         <v>0</v>
       </c>
       <c r="G142" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H142" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4819,31 +4821,31 @@
         <v>0</v>
       </c>
       <c r="D143" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E143" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F143" s="80">
         <v>0</v>
       </c>
       <c r="G143" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143" s="80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143" s="81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B144" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C144" s="76">
         <f t="shared" ref="C144:I144" si="17">SUM(C139:C143)</f>
@@ -4851,11 +4853,11 @@
       </c>
       <c r="D144" s="77">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E144" s="77">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F144" s="77">
         <f t="shared" si="17"/>
@@ -4863,20 +4865,20 @@
       </c>
       <c r="G144" s="77">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H144" s="77">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I144" s="77">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4888,7 +4890,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4903,11 +4905,13 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="16"/>
+      <c r="B147" s="16">
+        <v>4</v>
+      </c>
       <c r="C147" s="34">
         <v>0</v>
       </c>
@@ -4927,16 +4931,18 @@
         <v>0</v>
       </c>
       <c r="I147" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="16"/>
+      <c r="B148" s="16">
+        <v>6</v>
+      </c>
       <c r="C148" s="34">
         <v>0</v>
       </c>
@@ -4956,16 +4962,18 @@
         <v>0</v>
       </c>
       <c r="I148" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="16"/>
+      <c r="B149" s="16">
+        <v>2</v>
+      </c>
       <c r="C149" s="34">
         <v>0</v>
       </c>
@@ -4985,16 +4993,18 @@
         <v>0</v>
       </c>
       <c r="I149" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="16"/>
+      <c r="B150" s="16">
+        <v>4</v>
+      </c>
       <c r="C150" s="34">
         <v>0</v>
       </c>
@@ -5014,16 +5024,18 @@
         <v>0</v>
       </c>
       <c r="I150" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="18"/>
+      <c r="B151" s="18">
+        <v>4</v>
+      </c>
       <c r="C151" s="82">
         <v>0</v>
       </c>
@@ -5043,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="I151" s="81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C152" s="76">
         <f t="shared" ref="C152:I152" si="18">SUM(C147:C151)</f>
@@ -5080,12 +5092,12 @@
       </c>
       <c r="I152" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -5095,7 +5107,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -5110,7 +5122,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5151,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -5168,7 +5180,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -5197,7 +5209,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -5226,7 +5238,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5266,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -5292,7 +5304,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -5302,7 +5314,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -5317,7 +5329,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5358,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5387,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5416,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -5433,7 +5445,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -5461,7 +5473,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -5499,7 +5511,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -5509,7 +5521,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -5524,7 +5536,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5565,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -5582,7 +5594,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -5611,7 +5623,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -5640,7 +5652,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -5668,7 +5680,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Project-Ninja-Outbreak\Producer Dingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Project-Ninja-Outbreak\Producer Dingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K150" sqref="K150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1181,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.12121212121212122</v>
+        <v>0.12269938650306748</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1229,11 +1229,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.84848484848484851</v>
+        <v>0.90797546012269936</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1271,11 +1271,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.84242424242424241</v>
+        <v>0.8834355828220859</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.16666666666666666</v>
+        <v>0.16871165644171779</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1355,11 +1355,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.84848484848484851</v>
+        <v>0.90797546012269936</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1397,11 +1397,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.84242424242424241</v>
+        <v>0.90184049079754602</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1446,11 +1446,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.84242424242424241</v>
+        <v>0.8404907975460123</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.5121212121212118</v>
+        <v>4.7331288343558287</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="D147" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E147" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F147" s="35">
         <v>0</v>
       </c>
       <c r="G147" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H147" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I147" s="36">
         <v>4</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E148" s="35">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="G148" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H148" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I148" s="36">
         <v>6</v>
@@ -4978,19 +4978,19 @@
         <v>0</v>
       </c>
       <c r="D149" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E149" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149" s="35">
         <v>0</v>
       </c>
       <c r="G149" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" s="36">
         <v>2</v>
@@ -5009,19 +5009,19 @@
         <v>0</v>
       </c>
       <c r="D150" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E150" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F150" s="35">
         <v>0</v>
       </c>
       <c r="G150" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H150" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I150" s="36">
         <v>4</v>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C151" s="82">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J151" s="19"/>
     </row>
@@ -5064,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="B152" s="32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C152" s="76">
         <f t="shared" ref="C152:I152" si="18">SUM(C147:C151)</f>
@@ -5072,11 +5072,11 @@
       </c>
       <c r="D152" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E152" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F152" s="77">
         <f t="shared" si="18"/>
@@ -5084,15 +5084,15 @@
       </c>
       <c r="G152" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H152" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I152" s="77">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>

--- a/Producer Dingen/Aanwezigheid GL-G5.xlsx
+++ b/Producer Dingen/Aanwezigheid GL-G5.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1181,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C112+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.12269938650306748</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1229,11 +1229,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.90797546012269936</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1271,11 +1271,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.8834355828220859</v>
+        <v>0.88690476190476186</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.16871165644171779</v>
+        <v>0.16369047619047619</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1355,11 +1355,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.90797546012269936</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1397,11 +1397,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.90184049079754602</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1446,11 +1446,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8404907975460123</v>
+        <v>0.84523809523809523</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.7331288343558287</v>
+        <v>4.7410714285714279</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5126,27 +5126,29 @@
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="10">
+        <v>4</v>
+      </c>
       <c r="C155" s="34">
         <v>0</v>
       </c>
       <c r="D155" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E155" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F155" s="35">
         <v>0</v>
       </c>
       <c r="G155" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H155" s="35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I155" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
@@ -5155,27 +5157,29 @@
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="10">
+        <v>6</v>
+      </c>
       <c r="C156" s="34">
         <v>0</v>
       </c>
       <c r="D156" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E156" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F156" s="35">
         <v>0</v>
       </c>
       <c r="G156" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H156" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I156" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
@@ -5271,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C160" s="76">
         <f t="shared" ref="C160:I160" si="19">SUM(C155:C159)</f>
@@ -5279,11 +5283,11 @@
       </c>
       <c r="D160" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E160" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F160" s="77">
         <f t="shared" si="19"/>
@@ -5291,15 +5295,15 @@
       </c>
       <c r="G160" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H160" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I160" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
